--- a/biology/Médecine/Fibroblaste/Fibroblaste.xlsx
+++ b/biology/Médecine/Fibroblaste/Fibroblaste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fibroblaste Écouter est une cellule présente dans le tissu conjonctif ; elle est parfois appelée cellule de soutien. Ce sont notamment des cellules résidentes du derme qui en assurent la cohérence et la souplesse.
 Elle sécrète des protéoglycanes et des glycoprotéines.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Forme de la cellule :  fusiforme ou étoilée, aplatie et allongée
 Taille : longue de 20  à   30 μm et large de 5  à   10 μm
@@ -547,7 +561,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fibroblaste a plusieurs rôles dans l'organisme, dont :
 rôle protecteur contre la constitution d'athéromes, via la métabolisation du cholestérol ;
@@ -584,7 +600,9 @@
           <t>« Dérivés » du fibroblaste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le fibrocyte est un fibroblaste avec une activité moindre (ce qui se traduit par un noyau plus dense, sans nucléole, et des organites moins développés). Il peut parfois retrouver une activité fibroblastique lors des phénomènes de cicatrisation en ayant toutefois une activité de division moindre.
 Le myofibroblaste est identique à un fibroblaste avec cependant des micro-filaments d'actine associés à des micro-filaments de myosine; les filaments intermédiaires de vimentine sont eux associés à des filaments intermédiaires de desmine. Il intervient dans la rétractation du tissu cicatriciel. On les retrouve également au niveau de la gaine des tubes séminipares.</t>
@@ -615,7 +633,9 @@
           <t>Origine des fibroblastes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chez l'embryon, ils dérivent des cellules souches mésenchymateuses.
 Chez l'enfant et l'adulte, leur origine est locale. Ils peuvent dériver de cellules souches mésenchymateuses (considérées comme des pseudo-fibroblastes) disposées le long des capillaires. Ils proviennent de la division des cellules souches mésenchymateuses de morphologie fusiforme. Ces cellules vont avoir la capacité de se diviser (division hétérotypique) par mitose pour donner deux cellules différentes :
@@ -648,14 +668,16 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Chez divers vertébrés, les fibroblastes de la peau semblent jouer un rôle dans le développement encore mal compris de la maladie de Lyme. Des travaux récents (publication 2012[1]) sur microarray ont comparé l'inflammation des fibroblastes exposés à trois souches de Borrelia burgdorferi sensu stricto, isolées à partir de trois environnements et stades de la maladie de Lyme (prélevées dans la tique, dans un érythème migrant, correspondant à l'une des principales manifestations du stade initial chez l'homme) et en situation d'acrodermatite chronique atrophiante (correspondant à un stade plus avancé de la maladie). Ces trois souches ont provoqué un profil inflammatoire semblable, avec une forte induction de chimiokines (CXCL1 et interleukine 8) et d'interleukine 6 principalement impliquée dans le chimiotactisme des cellules immunitaires[1]. Une augmentation corrélative du taux de certaines molécules (facteur de nécrose tumorale et NF-κB), de métalloprotéinases (MMP-1, -3 et -12) et de superoxyde dismutase SOD2) a été associées aux événements inflammatoires et cellulaires[1]. Les auteurs ont en outre démontré que des extraits de glandes salivaires de tiques ont un effet cytotoxique sur les fibroblastes et que l'OspC (qui joue un rôle essentiel dans la transmission des Borrelies à l'hôte vertébré), n'est pas responsable de la réponse (sécrétion de molécules inflammatoires) des fibroblastes[1]. La salive de tique pourrait dont dans un premier temps faciliter l'installation des borrélies lors de la phase précoce de la maladie en créant dans la peau une fosse d'alimentation. Plus tard, les Borrelia peuvent se disperser dans la peau et diffuser vers des organes éloignés[1].
-Dans les maladies inflammatoires à médiation immunitaire (IMID), des sous-ensembles lymphocytaires dont les fonctions effectrices immunitaires ne se chevauchent pas ont été identifiées, ce qui a permis d'améliorer les thérapies[2],[3]. Mais outre les lymphocytes, des sous-classes de fibroblastes, bien qu'anatomiquement discrètes, jouant des fonctions spécifiques et ne se chevauchant pas, pourraient aussi être en cause dans les IMID. Ces sous-classes ont également des fonctions non-chevauchantes et on sait qu'elles sont aussi responsables processus induits par des tissus tels observés dans les IMID (ex. : inflammation et lésions)[4],[5],[6]. Dans le cas de l'arthrite, des fibroblastes interviennent dans la médiation de l’inflammation ou des lésions tissulaires.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chez divers vertébrés, les fibroblastes de la peau semblent jouer un rôle dans le développement encore mal compris de la maladie de Lyme. Des travaux récents (publication 2012) sur microarray ont comparé l'inflammation des fibroblastes exposés à trois souches de Borrelia burgdorferi sensu stricto, isolées à partir de trois environnements et stades de la maladie de Lyme (prélevées dans la tique, dans un érythème migrant, correspondant à l'une des principales manifestations du stade initial chez l'homme) et en situation d'acrodermatite chronique atrophiante (correspondant à un stade plus avancé de la maladie). Ces trois souches ont provoqué un profil inflammatoire semblable, avec une forte induction de chimiokines (CXCL1 et interleukine 8) et d'interleukine 6 principalement impliquée dans le chimiotactisme des cellules immunitaires. Une augmentation corrélative du taux de certaines molécules (facteur de nécrose tumorale et NF-κB), de métalloprotéinases (MMP-1, -3 et -12) et de superoxyde dismutase SOD2) a été associées aux événements inflammatoires et cellulaires. Les auteurs ont en outre démontré que des extraits de glandes salivaires de tiques ont un effet cytotoxique sur les fibroblastes et que l'OspC (qui joue un rôle essentiel dans la transmission des Borrelies à l'hôte vertébré), n'est pas responsable de la réponse (sécrétion de molécules inflammatoires) des fibroblastes. La salive de tique pourrait dont dans un premier temps faciliter l'installation des borrélies lors de la phase précoce de la maladie en créant dans la peau une fosse d'alimentation. Plus tard, les Borrelia peuvent se disperser dans la peau et diffuser vers des organes éloignés.
+Dans les maladies inflammatoires à médiation immunitaire (IMID), des sous-ensembles lymphocytaires dont les fonctions effectrices immunitaires ne se chevauchent pas ont été identifiées, ce qui a permis d'améliorer les thérapies,. Mais outre les lymphocytes, des sous-classes de fibroblastes, bien qu'anatomiquement discrètes, jouant des fonctions spécifiques et ne se chevauchant pas, pourraient aussi être en cause dans les IMID. Ces sous-classes ont également des fonctions non-chevauchantes et on sait qu'elles sont aussi responsables processus induits par des tissus tels observés dans les IMID (ex. : inflammation et lésions). Dans le cas de l'arthrite, des fibroblastes interviennent dans la médiation de l’inflammation ou des lésions tissulaires.
 Chez une souris modèle développant une arthrose persistante, supprimer la protéine alfa d'activation des fibroblastes (FAPα)+ supprime à la fois l'inflammation et les érosions osseuses (FAPα désigne la protéine Fibroblast Activation Protein, codée par le gène numéroté 3.4.21 dans la nomenclature EC). A proximité du liquide synovial, deux sous-ensembles de fibroblastes ont été trouvés dans la population FAPα+ :
 Fibroblastes FAPα+ THY1+, qui sont des fibroblastes effecteurs immunitaires situés dans la sous-muqueuse synoviale ; Si les fibroblasts FAPα+ THY1+ sont transférés et acceptés  dans l'articulation, ils y induisent une arthrite inflammatoire plus grave et persistante, mais avec peu d'effets sur les os et le cartilage ;
 Fibroblastes FAPα+ THY1−, qui sont des fibroblastes destructeurs, uniquement présents dans la couche muqueuse synoviale. Si ces fibroblast es FAPα+THY1− sont transférés et acceptés  dans l'articulation, ils y médient sélectivement les lésions des os et du cartilage, mais avec peu d'effet sur l'inflammation.
-Cette découverte récente (publication 2019) pourrait avoir des implications thérapeutiques importantes (thérapies cellulaires cherchant à contrôler l’inflammation et/ou les lésions tissulaires)[7].</t>
+Cette découverte récente (publication 2019) pourrait avoir des implications thérapeutiques importantes (thérapies cellulaires cherchant à contrôler l’inflammation et/ou les lésions tissulaires).</t>
         </is>
       </c>
     </row>
